--- a/medicine/Enfance/Camp_Q/Camp_Q.xlsx
+++ b/medicine/Enfance/Camp_Q/Camp_Q.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Camp Q était une communauté expérimentale mise en place dans l'Essex, en Angleterre vers la fin de la Seconde Guerre mondiale. Il a été envisagé comme une communauté autonome peuplée par des enfants perturbés ou délinquants citadins inaptes à être inclus dans le programme d'évacuation en raison de leurs problèmes de comportement.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1936, c'était à l'origine un camp mis en place pour les adultes mais il avait été fermé lorsque la guerre a commencé. Arthur Barron est devenu le chef du camp. Il pensait que les enfants pouvaient apprendre la discipline en prenant des responsabilités, mais ne devaient pas être contraints en permanence.
 </t>
@@ -542,7 +556,9 @@
           <t>Fermeture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La communauté a été fermée en 1946 pour des raisons d'hygiène et sécurité après que quelques fournisseurs et parents ont soulevé des préoccupations au sujet du bien-être des enfants, qui avaient continué dans leur comportement anti-social, à allumer des feux et à détruire des biens, tout en continuant à rejeter toutes responsabilités nécessaires pour le bon fonctionnement et l'entretien du camp.
 </t>
